--- a/data/pubdata/publications.xlsx
+++ b/data/pubdata/publications.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -84,9 +84,6 @@
     <t xml:space="preserve">year of publication</t>
   </si>
   <si>
-    <t xml:space="preserve">int</t>
-  </si>
-  <si>
     <t xml:space="preserve">fulljournalname</t>
   </si>
   <si>
@@ -129,12 +126,6 @@
     <t xml:space="preserve">url link label</t>
   </si>
   <si>
-    <t xml:space="preserve">html_order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int for html purposes only</t>
-  </si>
-  <si>
     <t xml:space="preserve">publications_queries</t>
   </si>
   <si>
@@ -154,210 +145,6 @@
   </si>
   <si>
     <t xml:space="preserve">query to run</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scientific reports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WGS-based telomere length analysis in Dutch family trios implicates stronger maternal inheritance and a role for RRM1 gene.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nersisyan L, Nikoghosyan M, Genome of the Netherlands consortium., Arakelyan A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1038/s41598-019-55109-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41598-019-55109-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Science (New York, N.Y.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negative selection in humans and fruit flies involves synergistic epistasis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sohail M, Vakhrusheva OA, Sul JH, Pulit SL, Francioli LC, Genome of the Netherlands Consortium., Alzheimer’s Disease Neuroimaging Initiative., van den Berg LH, Veldink JH, de Bakker PIW, Bazykin GA, Kondrashov AS, Sunyaev SR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1126/science.aah5238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1126/science.aah5238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European journal of human genetics : EJHG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A framework for the detection of de novo mutations in family-based sequencing data.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francioli LC, Cretu-Stancu M, Garimella KV, Fromer M, Kloosterman WP, Genome of the Netherlands consortium., Samocha KE, Neale BM, Daly MJ, Banks E, DePristo MA, de Bakker PI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1038/ejhg.2016.147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/ejhg.2016.147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nature communications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A high-quality human reference panel reveals the complexity and distribution of genomic structural variants.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hehir-Kwa JY, Marschall T, Kloosterman WP, Francioli LC, Baaijens JA, Dijkstra LJ, Abdellaoui A, Koval V, Thung DT, Wardenaar R, Renkens I, Coe BP, Deelen P, de Ligt J, Lameijer EW, van Dijk F, Hormozdiari F, Genome of the Netherlands Consortium., Uitterlinden AG, van Duijn CM, Eichler EE, de Bakker PI, Swertz MA, Wijmenga C, van Ommen GB, Slagboom PE, Boomsma DI, Schönhuth A, Ye K, Guryev V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1038/ncomms12989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/ncomms12989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uncompromised 10-year survival of oldest old carrying somatic mutations in DNMT3A and TET2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">van den Akker EB, Pitts SJ, Deelen J, Moed MH, Potluri S, van Rooij J, Suchiman HE, Lakenberg N, de Dijcker WJ, Uitterlinden AG, Kraaij R, Hofman A, de Craen AJ, Houwing-Duistermaat JJ, van Ommen GJ, Genome of The Netherlands Consortium., Cox DR, van Meurs JB, Beekman M, Reinders MJ, Slagboom PE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1182/blood-2015-12-685925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1182/blood-2015-12-685925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">American journal of human genetics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leveraging Distant Relatedness to Quantify Human Mutation and Gene-Conversion Rates.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palamara PF, Francioli LC, Wilton PR, Genovese G, Gusev A, Finucane HK, Sankararaman S, Genome of the Netherlands Consortium., Sunyaev SR, de Bakker PI, Wakeley J, Pe'er I, Price AL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1016/j.ajhg.2015.10.006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.ajhg.2015.10.006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nature protocols</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population-specific genotype imputations using minimac or IMPUTE2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">van Leeuwen EM, Kanterakis A, Deelen P, Kattenberg MV, Genome of the Netherlands Consortium., Slagboom PE, de Bakker PI, Wijmenga C, Swertz MA, Boomsma DI, van Duijn CM, Karssen LC, Hottenga JJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1038/nprot.2015.077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/nprot.2015.077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Behavior genetics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heritability, SNP- and Gene-Based Analyses of Cannabis Use Initiation and Age at Onset.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minică CC, Dolan CV, Hottenga JJ, Pool R, Genome of the Netherlands Consortium., Fedko IO, Mbarek H, Huppertz C, Bartels M, Boomsma DI, Vink JM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1007/s10519-015-9723-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1007/s10519-015-9723-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nature genetics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genome-wide patterns and properties of de novo mutations in humans.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francioli LC, Polak PP, Koren A, Menelaou A, Chun S, Renkens I, Genome of the Netherlands Consortium., van Duijn CM, Swertz M, Wijmenga C, van Ommen G, Slagboom PE, Boomsma DI, Ye K, Guryev V, Arndt PF, Kloosterman WP, de Bakker PIW, Sunyaev SR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1038/ng.3292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/ng.3292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genome of The Netherlands population-specific imputations identify an ABCA6 variant associated with cholesterol levels.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">van Leeuwen EM, Karssen LC, Deelen J, Isaacs A, Medina-Gomez C, Mbarek H, Kanterakis A, Trompet S, Postmus I, Verweij N, van Enckevort DJ, Huffman JE, White CC, Feitosa MF, Bartz TM, Manichaikul A, Joshi PK, Peloso GM, Deelen P, van Dijk F, Willemsen G, de Geus EJ, Milaneschi Y, Penninx BW, Francioli LC, Menelaou A, Pulit SL, Rivadeneira F, Hofman A, Oostra BA, Franco OH, Mateo Leach I, Beekman M, de Craen AJ, Uh HW, Trochet H, Hocking LJ, Porteous DJ, Sattar N, Packard CJ, Buckley BM, Brody JA, Bis JC, Rotter JI, Mychaleckyj JC, Campbell H, Duan Q, Lange LA, Wilson JF, Hayward C, Polasek O, Vitart V, Rudan I, Wright AF, Rich SS, Psaty BM, Borecki IB, Kearney PM, Stott DJ, Adrienne Cupples L, Genome of The Netherlands Consortium., Jukema JW, van der Harst P, Sijbrands EJ, Hottenga JJ, Uitterlinden AG, Swertz MA, van Ommen GJ, de Bakker PI, Eline Slagboom P, Boomsma DI, Wijmenga C, van Duijn CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1038/ncomms7065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/ncomms7065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whole-genome sequence variation, population structure and demographic history of the Dutch population.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genome of the Netherlands Consortium.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1038/ng.3021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/ng.3021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Genome of the Netherlands: design, and project goals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boomsma DI, Wijmenga C, Slagboom EP, Swertz MA, Karssen LC, Abdellaoui A, Ye K, Guryev V, Vermaat M, van Dijk F, Francioli LC, Hottenga JJ, Laros JF, Li Q, Li Y, Cao H, Chen R, Du Y, Li N, Cao S, van Setten J, Menelaou A, Pulit SL, Hehir-Kwa JY, Beekman M, Elbers CC, Byelas H, de Craen AJ, Deelen P, Dijkstra M, den Dunnen JT, de Knijff P, Houwing-Duistermaat J, Koval V, Estrada K, Hofman A, Kanterakis A, Enckevort Dv, Mai H, Kattenberg M, van Leeuwen EM, Neerincx PB, Oostra B, Rivadeneira F, Suchiman EH, Uitterlinden AG, Willemsen G, Wolffenbuttel BH, Wang J, de Bakker PI, van Ommen GJ, van Duijn CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1038/ejhg.2013.118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/ejhg.2013.118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLoS genetics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deleterious alleles in the human genome are on average younger than neutral alleles of the same frequency.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiezun A, Pulit SL, Francioli LC, van Dijk F, Swertz M, Boomsma DI, van Duijn CM, Slagboom PE, van Ommen GJ, Wijmenga C, Genome of the Netherlands Consortium., de Bakker PI, Sunyaev SR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1371/journal.pgen.1003301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pgen.1003301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Genome of the Netherlands consortium"[Corporate Author]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">papers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Genome of the Netherlands: design, and project goals[Title]</t>
   </si>
 </sst>
 </file>
@@ -832,7 +619,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -846,10 +633,10 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -866,13 +653,13 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -886,13 +673,13 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -906,13 +693,13 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -926,13 +713,13 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -946,10 +733,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
         <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -963,7 +750,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -972,44 +759,44 @@
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
         <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
@@ -1018,26 +805,6 @@
         <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1054,414 +821,7 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>31822713</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>28473589</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="n">
-        <v>356</v>
-      </c>
-      <c r="E3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>27876817</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>27708267</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>26825711</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" t="n">
-        <v>127</v>
-      </c>
-      <c r="E6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>26581902</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" t="n">
-        <v>97</v>
-      </c>
-      <c r="E7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>26226460</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" t="n">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>25987507</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" t="n">
-        <v>45</v>
-      </c>
-      <c r="E9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>25985141</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" t="n">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>25751400</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" t="n">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>24974849</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2014</v>
-      </c>
-      <c r="C12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" t="n">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" t="s">
-        <v>97</v>
-      </c>
-      <c r="H12" t="s">
-        <v>98</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>23714750</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2014</v>
-      </c>
-      <c r="C13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" t="n">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13" t="s">
-        <v>102</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>23468643</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2013</v>
-      </c>
-      <c r="C14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" t="n">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" t="s">
-        <v>106</v>
-      </c>
-      <c r="H14" t="s">
-        <v>107</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
@@ -1474,41 +834,7 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>

--- a/data/pubdata/publications.xlsx
+++ b/data/pubdata/publications.xlsx
@@ -9,14 +9,12 @@
     <sheet name="packages" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="entities" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="attributes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="publications_records" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="publications_queries" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -54,6 +52,15 @@
     <t xml:space="preserve">Pubmed API queries used to update publication records</t>
   </si>
   <si>
+    <t xml:space="preserve">exclusions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Records to Exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of records to remove that aren't related to the GoNL consortium</t>
+  </si>
+  <si>
     <t xml:space="preserve">entity</t>
   </si>
   <si>
@@ -145,6 +152,27 @@
   </si>
   <si>
     <t xml:space="preserve">query to run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">publications_exclusions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pubmed identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reason for excluding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date entry was created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
   </si>
 </sst>
 </file>
@@ -554,6 +582,20 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -570,7 +612,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -579,27 +621,27 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -610,16 +652,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -630,16 +672,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -650,16 +692,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -670,16 +712,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -690,16 +732,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -710,16 +752,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -730,16 +772,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -750,16 +792,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -770,16 +812,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -790,21 +832,81 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
         <v>1</v>
       </c>
     </row>
@@ -812,30 +914,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
 </file>